--- a/xlsx/Datapath&Ctrl.xlsx
+++ b/xlsx/Datapath&Ctrl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_document\study\2021春季\计算机设计与实践（实验）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A871018-B6E2-4302-B32E-4CFF50C47715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF877008-C31C-47CB-B7C1-94F0DC3507EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="3090" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据通路表(含控制信号)" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="108">
   <si>
     <t>所属单元</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,6 +369,94 @@
   </si>
   <si>
     <t>branch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc+4</t>
+  </si>
+  <si>
+    <t>pc+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'b11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'b01</t>
+  </si>
+  <si>
+    <t>'b01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'b10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'b00</t>
+  </si>
+  <si>
+    <t>'b00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'b000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'b010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'b011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'b001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'b100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +563,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -530,9 +618,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -540,6 +625,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -858,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -885,27 +979,27 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17" t="s">
+      <c r="M2" s="21"/>
+      <c r="N2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="17"/>
+      <c r="O2" s="21"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -914,30 +1008,30 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
       <c r="K3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17" t="s">
+      <c r="M3" s="21"/>
+      <c r="N3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="17"/>
+      <c r="O3" s="21"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -1890,10 +1984,10 @@
       <c r="C30" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="20"/>
+      <c r="E30" s="19"/>
       <c r="F30" s="6" t="s">
         <v>75</v>
       </c>
@@ -1903,17 +1997,17 @@
       <c r="H30" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I30" s="19" t="s">
+      <c r="I30" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="J30" s="20"/>
+      <c r="J30" s="19"/>
       <c r="K30" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="L30" s="19" t="s">
+      <c r="L30" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="M30" s="20"/>
+      <c r="M30" s="19"/>
       <c r="N30" s="6" t="s">
         <v>75</v>
       </c>
@@ -1972,30 +2066,30 @@
       <c r="C32" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="20"/>
+      <c r="E32" s="19"/>
       <c r="F32" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="19"/>
       <c r="K32" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L32" s="19" t="s">
+      <c r="L32" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="M32" s="20"/>
-      <c r="N32" s="19" t="s">
+      <c r="M32" s="19"/>
+      <c r="N32" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="O32" s="20"/>
+      <c r="O32" s="19"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
@@ -2004,13 +2098,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="I30:J30"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="D3:E3"/>
@@ -2019,6 +2106,13 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="I30:J30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2030,8 +2124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:L27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2051,345 +2145,843 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="18"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="B4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0</v>
+      </c>
       <c r="L4" s="11"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="B5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0</v>
+      </c>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0</v>
+      </c>
       <c r="L6" s="11"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="B7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0</v>
+      </c>
       <c r="L7" s="11"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="B8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0</v>
+      </c>
       <c r="L8" s="11"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
+      <c r="B9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0</v>
+      </c>
       <c r="L9" s="11"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
+      <c r="B10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0</v>
+      </c>
+      <c r="K10" s="13">
+        <v>0</v>
+      </c>
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
       <c r="L11" s="6"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
       <c r="L13" s="6"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
       <c r="L14" s="6"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
       <c r="L15" s="6"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
       <c r="L16" s="6"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="B17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
       <c r="L17" s="6"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="B18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
       <c r="L18" s="6"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
       <c r="L19" s="6"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1</v>
+      </c>
       <c r="L20" s="6"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="B21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <v>1</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0</v>
+      </c>
       <c r="L21" s="6"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="B22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <v>1</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0</v>
+      </c>
       <c r="L22" s="6"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="B23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
+        <v>1</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0</v>
+      </c>
       <c r="L23" s="6"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
+      <c r="B24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <v>1</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0</v>
+      </c>
       <c r="L24" s="6"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="B25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
+        <v>1</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0</v>
+      </c>
       <c r="L25" s="6"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
+      <c r="B26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0</v>
+      </c>
       <c r="L26" s="6"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="B27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0</v>
+      </c>
       <c r="L27" s="6"/>
     </row>
   </sheetData>
@@ -2399,6 +2991,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/Datapath&Ctrl.xlsx
+++ b/xlsx/Datapath&Ctrl.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_document\study\2021春季\计算机设计与实践（实验）\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_document\git_repositories\mini-rv-1_-design\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF877008-C31C-47CB-B7C1-94F0DC3507EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67083A98-DA52-4AEB-9EB8-8113E310CE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3090" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据通路表(含控制信号)" sheetId="1" r:id="rId1"/>
@@ -618,6 +618,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -627,13 +633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -979,27 +979,27 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="M2" s="19"/>
+      <c r="N2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="21"/>
+      <c r="O2" s="19"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -1008,30 +1008,30 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
       <c r="K3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21" t="s">
+      <c r="M3" s="19"/>
+      <c r="N3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="21"/>
+      <c r="O3" s="19"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -1984,10 +1984,10 @@
       <c r="C30" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="19"/>
+      <c r="E30" s="21"/>
       <c r="F30" s="6" t="s">
         <v>75</v>
       </c>
@@ -1997,17 +1997,17 @@
       <c r="H30" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I30" s="18" t="s">
+      <c r="I30" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="J30" s="19"/>
+      <c r="J30" s="21"/>
       <c r="K30" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="L30" s="18" t="s">
+      <c r="L30" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="M30" s="19"/>
+      <c r="M30" s="21"/>
       <c r="N30" s="6" t="s">
         <v>75</v>
       </c>
@@ -2066,30 +2066,30 @@
       <c r="C32" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="19"/>
+      <c r="E32" s="21"/>
       <c r="F32" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="19"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="21"/>
       <c r="K32" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L32" s="18" t="s">
+      <c r="L32" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="M32" s="19"/>
-      <c r="N32" s="18" t="s">
+      <c r="M32" s="21"/>
+      <c r="N32" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="O32" s="19"/>
+      <c r="O32" s="21"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
@@ -2098,6 +2098,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="D3:E3"/>
@@ -2106,13 +2113,6 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="I30:J30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2125,7 +2125,7 @@
   <dimension ref="B2:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2145,24 +2145,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="22"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="10" t="s">
         <v>76</v>
       </c>
@@ -2469,7 +2469,7 @@
       <c r="E12" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="18" t="s">
         <v>95</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -2502,7 +2502,7 @@
       <c r="E13" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="18" t="s">
         <v>95</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -2535,7 +2535,7 @@
       <c r="E14" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="18" t="s">
         <v>95</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -2568,7 +2568,7 @@
       <c r="E15" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="18" t="s">
         <v>95</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -2601,7 +2601,7 @@
       <c r="E16" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="18" t="s">
         <v>95</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -2634,7 +2634,7 @@
       <c r="E17" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="18" t="s">
         <v>95</v>
       </c>
       <c r="G17" s="6" t="s">
@@ -2667,7 +2667,7 @@
       <c r="E18" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="18" t="s">
         <v>95</v>
       </c>
       <c r="G18" s="6" t="s">
@@ -2697,10 +2697,10 @@
       <c r="D19" s="6">
         <v>1</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="18" t="s">
         <v>95</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -2724,16 +2724,16 @@
       <c r="B20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>87</v>
+      <c r="C20" s="18" t="s">
+        <v>89</v>
       </c>
       <c r="D20" s="6">
         <v>1</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="18" t="s">
         <v>95</v>
       </c>
       <c r="G20" s="6" t="s">
@@ -2763,10 +2763,10 @@
       <c r="D21" s="6">
         <v>0</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="18" t="s">
         <v>98</v>
       </c>
       <c r="G21" s="6" t="s">
@@ -2790,7 +2790,7 @@
       <c r="B22" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D22" s="6">
@@ -2799,7 +2799,7 @@
       <c r="E22" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="18" t="s">
         <v>96</v>
       </c>
       <c r="G22" s="6" t="s">
@@ -2823,7 +2823,7 @@
       <c r="B23" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D23" s="6">
@@ -2832,7 +2832,7 @@
       <c r="E23" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="18" t="s">
         <v>96</v>
       </c>
       <c r="G23" s="6" t="s">
@@ -2865,7 +2865,7 @@
       <c r="E24" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="18" t="s">
         <v>96</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -2898,7 +2898,7 @@
       <c r="E25" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="18" t="s">
         <v>96</v>
       </c>
       <c r="G25" s="6" t="s">
@@ -2928,10 +2928,10 @@
       <c r="D26" s="6">
         <v>1</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="18" t="s">
         <v>97</v>
       </c>
       <c r="G26" s="6" t="s">
@@ -2955,16 +2955,16 @@
       <c r="B27" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="6">
-        <v>1</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="18" t="s">
         <v>99</v>
       </c>
       <c r="G27" s="6" t="s">
